--- a/CompuOfertas/SIGPAdProject/SIGPAd/static/documents/exampleProducto.xlsx
+++ b/CompuOfertas/SIGPAdProject/SIGPAd/static/documents/exampleProducto.xlsx
@@ -397,23 +397,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,17 +429,8 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>400</v>
-      </c>
-      <c r="H1">
-        <v>600</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -455,17 +446,8 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>500</v>
-      </c>
-      <c r="H2">
-        <v>700</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -480,15 +462,6 @@
       </c>
       <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
